--- a/Excel/Datas/l10n/texts.xlsx
+++ b/Excel/Datas/l10n/texts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Excel\Datas\l10n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Excel/Datas/l10n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791BA900-78B4-485B-A99B-0A3B6D643443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41B3FCE-A817-FD45-A765-AE51B744CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2625" yWindow="2475" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="4080" windowWidth="19760" windowHeight="12020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>##var</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -425,6 +424,1640 @@
   </si>
   <si>
     <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>프레임워크</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데모는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시스템을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시스템의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용방법을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설명해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>드리기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>들어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데모이기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용방법을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참조해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주시길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바랍니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃</t>
+  </si>
+  <si>
+    <t>아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <r>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+  </si>
+  <si>
+    <t>업데이트</t>
+  </si>
+  <si>
+    <r>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그아웃을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>원하십니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>음악</t>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용언어를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바꾼후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리부팅이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko_KR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유니티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엔진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Unity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버전을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발과정에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모듈을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캡슐화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>규범화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>속도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>높이며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>콜리티를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보장해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>드릴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버전이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>업데이트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>원하십니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효과음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>玩家0（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>文）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人0（韩文）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +2065,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +2094,59 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Batang"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -500,21 +2186,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,20 +2485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,8 +2515,11 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -839,8 +2535,11 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +2555,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -870,8 +2572,11 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -884,8 +2589,11 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -895,11 +2603,14 @@
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="80">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -912,8 +2623,12 @@
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="96">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -926,8 +2641,11 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -940,8 +2658,11 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -954,8 +2675,11 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -968,8 +2692,11 @@
       <c r="E11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -982,8 +2709,11 @@
       <c r="E12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -996,8 +2726,11 @@
       <c r="E13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1010,13 +2743,16 @@
       <c r="E14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -1029,8 +2765,11 @@
       <c r="E16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -1043,8 +2782,11 @@
       <c r="E17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>57</v>
       </c>
@@ -1057,8 +2799,11 @@
       <c r="E18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -1071,8 +2816,11 @@
       <c r="E19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -1085,8 +2833,11 @@
       <c r="E20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -1099,8 +2850,11 @@
       <c r="E21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>61</v>
       </c>
@@ -1113,8 +2867,11 @@
       <c r="E22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>62</v>
       </c>
@@ -1127,8 +2884,11 @@
       <c r="E23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>63</v>
       </c>
@@ -1141,8 +2901,11 @@
       <c r="E24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -1155,8 +2918,11 @@
       <c r="E25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -1169,8 +2935,11 @@
       <c r="E26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>66</v>
       </c>
@@ -1182,6 +2951,9 @@
       </c>
       <c r="E27" t="s">
         <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1190,28 +2962,31 @@
     <hyperlink ref="C6" r:id="rId1" xr:uid="{42E00810-55F1-43FD-8FEA-1D63C021397E}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{6677F3A1-7397-4552-A0F5-2085BE6B263D}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{E4E46902-823F-46C9-AD2E-5A68701A8042}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{1B568839-21D1-F243-98A0-0C07E4CB5548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,8 +3002,11 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1244,8 +3022,11 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +3042,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1275,8 +3059,11 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1289,13 +3076,17 @@
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1"/>
+    <row r="8" spans="1:6" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
